--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>198.4680280078243</v>
+        <v>336.532743143702</v>
       </c>
       <c r="C2">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D2">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E2">
-        <v>66.91740540528532</v>
+        <v>113.4686439480925</v>
       </c>
       <c r="F2">
-        <v>88.0933273998411</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G2">
-        <v>322.8749611244223</v>
+        <v>547.4836297327162</v>
       </c>
       <c r="H2">
-        <v>5.264551505211619</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I2">
-        <v>745.5451622309002</v>
+        <v>1264.185275087179</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>238.1260658624343</v>
+        <v>403.7789812449972</v>
       </c>
       <c r="C3">
-        <v>26.04966350560862</v>
+        <v>44.17116855298852</v>
       </c>
       <c r="D3">
-        <v>99.78960293696673</v>
+        <v>169.208457153987</v>
       </c>
       <c r="E3">
-        <v>29.37837310475942</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F3">
-        <v>71.54788012169837</v>
+        <v>121.3203184672277</v>
       </c>
       <c r="G3">
-        <v>105.8312372574495</v>
+        <v>179.4529675235013</v>
       </c>
       <c r="H3">
-        <v>12.28395351216045</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I3">
-        <v>583.0067763010774</v>
+        <v>988.5767076409571</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>255.909939339838</v>
+        <v>433.9342449675514</v>
       </c>
       <c r="C4">
-        <v>27.03266967563158</v>
+        <v>45.83800510215789</v>
       </c>
       <c r="D4">
-        <v>91.74205431301776</v>
+        <v>155.5626138351171</v>
       </c>
       <c r="E4">
-        <v>21.21771390899291</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F4">
-        <v>76.46679688006512</v>
+        <v>129.6610903618496</v>
       </c>
       <c r="G4">
-        <v>98.65623812135124</v>
+        <v>167.2866646405521</v>
       </c>
       <c r="H4">
-        <v>11.40652826129185</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I4">
-        <v>582.4319405001884</v>
+        <v>987.6019860655369</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>251.6418097052611</v>
+        <v>426.6969816741385</v>
       </c>
       <c r="C5">
-        <v>24.08365116556268</v>
+        <v>40.83749545464977</v>
       </c>
       <c r="D5">
-        <v>82.08499596427905</v>
+        <v>139.1876018524732</v>
       </c>
       <c r="E5">
-        <v>31.01050494391272</v>
+        <v>52.58303012228676</v>
       </c>
       <c r="F5">
-        <v>90.32919865364417</v>
+        <v>153.1669020648749</v>
       </c>
       <c r="G5">
-        <v>102.2437376894004</v>
+        <v>173.3698160820267</v>
       </c>
       <c r="H5">
-        <v>11.40652826129185</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I5">
-        <v>592.8004263833519</v>
+        <v>1005.18333169351</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>259.8223915048667</v>
+        <v>440.5684029865131</v>
       </c>
       <c r="C6">
-        <v>26.04966350560862</v>
+        <v>44.17116855298852</v>
       </c>
       <c r="D6">
-        <v>103.0086223865463</v>
+        <v>174.666794481535</v>
       </c>
       <c r="E6">
-        <v>31.01050494391272</v>
+        <v>52.58303012228676</v>
       </c>
       <c r="F6">
-        <v>78.7026681338682</v>
+        <v>133.4523503139504</v>
       </c>
       <c r="G6">
-        <v>82.51249006513014</v>
+        <v>139.9124831539163</v>
       </c>
       <c r="H6">
-        <v>7.896827257817429</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I6">
-        <v>589.0031677977502</v>
+        <v>998.7445019179241</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>266.046747221958</v>
+        <v>451.1227452894071</v>
       </c>
       <c r="C7">
-        <v>23.59214808055119</v>
+        <v>40.00407718006507</v>
       </c>
       <c r="D7">
-        <v>112.665680735285</v>
+        <v>191.0418064641789</v>
       </c>
       <c r="E7">
-        <v>47.33182333544573</v>
+        <v>80.25830913401667</v>
       </c>
       <c r="F7">
-        <v>67.52331186485284</v>
+        <v>114.4960505534461</v>
       </c>
       <c r="G7">
-        <v>69.95624157695816</v>
+        <v>118.6214531087551</v>
       </c>
       <c r="H7">
-        <v>12.28395351216045</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I7">
-        <v>599.3999063272113</v>
+        <v>1016.373754207011</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>293.4339123771596</v>
+        <v>497.5618514221401</v>
       </c>
       <c r="C8">
-        <v>25.55816042059714</v>
+        <v>43.33775027840383</v>
       </c>
       <c r="D8">
-        <v>98.18009321217691</v>
+        <v>166.479288490213</v>
       </c>
       <c r="E8">
-        <v>57.12461437036553</v>
+        <v>96.8634765410546</v>
       </c>
       <c r="F8">
-        <v>66.62896336333161</v>
+        <v>112.9795465726057</v>
       </c>
       <c r="G8">
-        <v>44.84374460061421</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H8">
-        <v>21.05820602084648</v>
+        <v>35.70739281795709</v>
       </c>
       <c r="I8">
-        <v>606.8276943650915</v>
+        <v>1028.968699140807</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>325.8005621060342</v>
+        <v>552.4444313971886</v>
       </c>
       <c r="C9">
-        <v>16.71110489039043</v>
+        <v>28.33622133587944</v>
       </c>
       <c r="D9">
-        <v>75.64695706511992</v>
+        <v>128.2709271973773</v>
       </c>
       <c r="E9">
-        <v>88.13511931427826</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F9">
-        <v>64.84026636028915</v>
+        <v>109.946538610925</v>
       </c>
       <c r="G9">
-        <v>37.66874546451591</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H9">
-        <v>5.264551505211619</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I9">
-        <v>614.0673067058395</v>
+        <v>1041.244563544685</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>316.3751091630102</v>
+        <v>536.4621416242346</v>
       </c>
       <c r="C10">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D10">
-        <v>62.77087926680166</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E10">
-        <v>117.5134924190377</v>
+        <v>199.2620088844551</v>
       </c>
       <c r="F10">
-        <v>34.87959155932796</v>
+        <v>59.14365525277348</v>
       </c>
       <c r="G10">
-        <v>32.28749611244223</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H10">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I10">
-        <v>575.5170616417408</v>
+        <v>975.8767566968648</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>223.0097734066414</v>
+        <v>378.1470070808265</v>
       </c>
       <c r="C11">
-        <v>9.338558615218183</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D11">
-        <v>54.72333064285272</v>
+        <v>92.79173456831546</v>
       </c>
       <c r="E11">
-        <v>91.39938299258485</v>
+        <v>154.9815624656873</v>
       </c>
       <c r="F11">
-        <v>17.88697003042459</v>
+        <v>30.33007961680692</v>
       </c>
       <c r="G11">
-        <v>19.73124762427025</v>
+        <v>33.45733292811043</v>
       </c>
       <c r="H11">
-        <v>2.63227575260581</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I11">
-        <v>418.7215390645978</v>
+        <v>710.0060879791004</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>189.0425750648003</v>
+        <v>320.5504533707484</v>
       </c>
       <c r="C12">
-        <v>19.66012340045933</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D12">
-        <v>37.01872367016507</v>
+        <v>62.77087926680166</v>
       </c>
       <c r="E12">
-        <v>76.71019644020514</v>
+        <v>130.0738113551304</v>
       </c>
       <c r="F12">
-        <v>16.99262152890336</v>
+        <v>28.81357563596657</v>
       </c>
       <c r="G12">
-        <v>30.49374632841765</v>
+        <v>51.70678725253429</v>
       </c>
       <c r="H12">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I12">
-        <v>370.7954116838195</v>
+        <v>628.7400458986505</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>151.6964407622528</v>
+        <v>257.2243995533851</v>
       </c>
       <c r="C13">
-        <v>14.7450925503445</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D13">
-        <v>28.97117504621614</v>
+        <v>49.12503594793171</v>
       </c>
       <c r="E13">
-        <v>65.28527356613203</v>
+        <v>110.7011160469195</v>
       </c>
       <c r="F13">
-        <v>9.837833516733525</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G13">
-        <v>19.73124762427025</v>
+        <v>33.45733292811043</v>
       </c>
       <c r="H13">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I13">
-        <v>292.0219135676865</v>
+        <v>495.1675925712944</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>115.0616613988014</v>
+        <v>195.1045562849241</v>
       </c>
       <c r="C14">
-        <v>16.71110489039043</v>
+        <v>28.33622133587944</v>
       </c>
       <c r="D14">
-        <v>24.14264587184679</v>
+        <v>40.93752995660977</v>
       </c>
       <c r="E14">
-        <v>21.21771390899291</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F14">
-        <v>6.260439510648607</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G14">
-        <v>12.55624848817198</v>
+        <v>21.29103004516118</v>
       </c>
       <c r="H14">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I14">
-        <v>196.8272393197207</v>
+        <v>333.7505362377872</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>72.02468758348462</v>
+        <v>122.1288180763435</v>
       </c>
       <c r="C15">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D15">
-        <v>19.31411669747743</v>
+        <v>32.75002396528782</v>
       </c>
       <c r="E15">
-        <v>14.68918655237971</v>
+        <v>24.90775111055688</v>
       </c>
       <c r="F15">
-        <v>10.28500776749414</v>
+        <v>17.43979577966398</v>
       </c>
       <c r="G15">
-        <v>21.52499740829482</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="H15">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I15">
-        <v>149.528489130252</v>
+        <v>253.5483076556446</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>54.06297537130698</v>
+        <v>91.67200171656403</v>
       </c>
       <c r="C16">
-        <v>15.23659563535598</v>
+        <v>25.83596651212536</v>
       </c>
       <c r="D16">
-        <v>9.657058348738714</v>
+        <v>16.37501198264391</v>
       </c>
       <c r="E16">
-        <v>4.896395517459903</v>
+        <v>8.302583703518966</v>
       </c>
       <c r="F16">
-        <v>4.024568256845533</v>
+        <v>6.824267913781557</v>
       </c>
       <c r="G16">
-        <v>14.34999827219655</v>
+        <v>24.33260576589849</v>
       </c>
       <c r="H16">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I16">
-        <v>103.1050166527723</v>
+        <v>174.8302456286139</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>34.50071454616301</v>
+        <v>58.50121162175468</v>
       </c>
       <c r="C17">
-        <v>17.20260797540192</v>
+        <v>29.16963961046412</v>
       </c>
       <c r="E17">
-        <v>1.632131839153301</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F17">
-        <v>8.496310764451682</v>
+        <v>14.40678781798328</v>
       </c>
       <c r="G17">
-        <v>14.34999827219655</v>
+        <v>24.33260576589849</v>
       </c>
       <c r="H17">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I17">
-        <v>77.05918864823506</v>
+        <v>130.6655807513551</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>20.6292932337882</v>
+        <v>34.98010591816257</v>
       </c>
       <c r="C18">
-        <v>14.25358946533301</v>
+        <v>24.16912996295598</v>
       </c>
       <c r="D18">
-        <v>9.657058348738714</v>
+        <v>16.37501198264391</v>
       </c>
       <c r="F18">
-        <v>6.260439510648607</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G18">
-        <v>25.11249697634396</v>
+        <v>42.58206009032235</v>
       </c>
       <c r="I18">
-        <v>75.9128775348525</v>
+        <v>128.7218358199673</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>25.6087778074612</v>
+        <v>43.42357976047768</v>
       </c>
       <c r="C19">
-        <v>9.338558615218183</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D19">
-        <v>8.047548623948927</v>
+        <v>13.64584331886992</v>
       </c>
       <c r="E19">
-        <v>6.528527356613205</v>
+        <v>11.07011160469196</v>
       </c>
       <c r="F19">
-        <v>6.260439510648607</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G19">
-        <v>30.49374632841765</v>
+        <v>51.70678725253429</v>
       </c>
       <c r="I19">
-        <v>86.27759824230777</v>
+        <v>146.2967970195654</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>42.3256188762206</v>
+        <v>71.7695276596784</v>
       </c>
       <c r="C20">
-        <v>8.355552445195215</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D20">
-        <v>16.09509724789785</v>
+        <v>27.29168663773983</v>
       </c>
       <c r="E20">
-        <v>3.264263678306603</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F20">
-        <v>10.73218201825476</v>
+        <v>18.19804777008415</v>
       </c>
       <c r="G20">
-        <v>37.66874546451591</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="I20">
-        <v>118.441459730391</v>
+        <v>200.8355186732716</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>95.85507804320545</v>
+        <v>162.5368714645658</v>
       </c>
       <c r="C21">
-        <v>9.338558615218183</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D21">
-        <v>37.01872367016507</v>
+        <v>62.77087926680166</v>
       </c>
       <c r="E21">
-        <v>42.43542781798582</v>
+        <v>71.95572543049768</v>
       </c>
       <c r="F21">
-        <v>26.83045504563688</v>
+        <v>45.49511942521037</v>
       </c>
       <c r="G21">
-        <v>59.19374287281075</v>
+        <v>100.3719987843313</v>
       </c>
       <c r="H21">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I21">
-        <v>271.5494113158907</v>
+        <v>460.4533496225973</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>176.7717023653919</v>
+        <v>299.7433214021862</v>
       </c>
       <c r="C22">
-        <v>10.32156478524115</v>
+        <v>17.50178376627847</v>
       </c>
       <c r="D22">
-        <v>65.98989871638122</v>
+        <v>111.8959152147334</v>
       </c>
       <c r="E22">
-        <v>151.7882610412569</v>
+        <v>257.3800948090879</v>
       </c>
       <c r="F22">
-        <v>46.05894782834331</v>
+        <v>78.09995501327781</v>
       </c>
       <c r="G22">
-        <v>96.86248833732671</v>
+        <v>164.2450889198147</v>
       </c>
       <c r="H22">
-        <v>3.509701003474414</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I22">
-        <v>551.3025640774157</v>
+        <v>934.8173912617048</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>248.7963899488765</v>
+        <v>421.8721394785298</v>
       </c>
       <c r="C23">
-        <v>6.389540105149284</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D23">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E23">
-        <v>119.145624258191</v>
+        <v>202.0295367856281</v>
       </c>
       <c r="F23">
-        <v>53.21373584051315</v>
+        <v>90.23198686000055</v>
       </c>
       <c r="G23">
-        <v>96.86248833732671</v>
+        <v>164.2450889198147</v>
       </c>
       <c r="H23">
-        <v>6.141976756080225</v>
+        <v>10.41465623857082</v>
       </c>
       <c r="I23">
-        <v>583.6635761641999</v>
+        <v>989.6904117566866</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>304.1042364636017</v>
+        <v>515.6550096556725</v>
       </c>
       <c r="C24">
-        <v>13.76208638032154</v>
+        <v>23.33571168837129</v>
       </c>
       <c r="D24">
-        <v>86.91352513864842</v>
+        <v>147.3751078437951</v>
       </c>
       <c r="E24">
-        <v>63.65314172697872</v>
+        <v>107.9335881457465</v>
       </c>
       <c r="F24">
-        <v>63.94591785876791</v>
+        <v>108.4300346300847</v>
       </c>
       <c r="G24">
-        <v>139.9124831539163</v>
+        <v>237.2429062175102</v>
       </c>
       <c r="H24">
-        <v>7.896827257817429</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I24">
-        <v>680.1882179800521</v>
+        <v>1153.362630487914</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>229.0562903889585</v>
+        <v>388.399796746495</v>
       </c>
       <c r="C25">
-        <v>8.847055530206697</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D25">
-        <v>82.08499596427905</v>
+        <v>139.1876018524732</v>
       </c>
       <c r="E25">
-        <v>135.466942649724</v>
+        <v>229.704815797358</v>
       </c>
       <c r="F25">
-        <v>72.44222862321959</v>
+        <v>122.836822448068</v>
       </c>
       <c r="G25">
-        <v>224.2187230030709</v>
+        <v>380.1969650921639</v>
       </c>
       <c r="H25">
-        <v>15.79365451563486</v>
+        <v>26.78054461346781</v>
       </c>
       <c r="I25">
-        <v>767.9098906750936</v>
+        <v>1302.10807549255</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>194.5555758427954</v>
+        <v>329.8985851247401</v>
       </c>
       <c r="C26">
-        <v>8.355552445195215</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D26">
-        <v>77.25646678990971</v>
+        <v>131.0000958611513</v>
       </c>
       <c r="E26">
-        <v>65.28527356613203</v>
+        <v>110.7011160469195</v>
       </c>
       <c r="F26">
-        <v>85.85745614603805</v>
+        <v>145.5843821606732</v>
       </c>
       <c r="G26">
-        <v>351.5749576688154</v>
+        <v>596.1488412645132</v>
       </c>
       <c r="H26">
-        <v>6.141976756080225</v>
+        <v>10.41465623857082</v>
       </c>
       <c r="I26">
-        <v>789.0272592149661</v>
+        <v>1337.915787364508</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>233.3244200235355</v>
+        <v>395.6370600399077</v>
       </c>
       <c r="C27">
-        <v>20.15162648547082</v>
+        <v>34.17014925797226</v>
       </c>
       <c r="D27">
-        <v>143.2463655062909</v>
+        <v>242.8960110758846</v>
       </c>
       <c r="E27">
-        <v>27.74624126560612</v>
+        <v>47.04797431994081</v>
       </c>
       <c r="F27">
-        <v>69.75918311865591</v>
+        <v>118.287310505547</v>
       </c>
       <c r="G27">
-        <v>114.7999861775724</v>
+        <v>194.6608461271879</v>
       </c>
       <c r="H27">
-        <v>13.16137876302905</v>
+        <v>22.31712051122318</v>
       </c>
       <c r="I27">
-        <v>622.1892013401607</v>
+        <v>1055.016471837664</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>250.752616031391</v>
+        <v>425.1892184880105</v>
       </c>
       <c r="C28">
-        <v>20.6431295704823</v>
+        <v>35.00356753255694</v>
       </c>
       <c r="D28">
-        <v>131.9797974327624</v>
+        <v>223.7918304294667</v>
       </c>
       <c r="E28">
-        <v>21.21771390899291</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F28">
-        <v>74.67809987702265</v>
+        <v>126.6280824001689</v>
       </c>
       <c r="G28">
-        <v>107.6249870414741</v>
+        <v>182.4945432442386</v>
       </c>
       <c r="H28">
-        <v>12.28395351216045</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I28">
-        <v>619.1802973742858</v>
+        <v>1049.914417286832</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>246.6623251315882</v>
+        <v>418.2535078318232</v>
       </c>
       <c r="C29">
-        <v>18.67711723043637</v>
+        <v>31.66989443421819</v>
       </c>
       <c r="D29">
-        <v>117.4942099096544</v>
+        <v>199.2293124555009</v>
       </c>
       <c r="E29">
-        <v>29.37837310475942</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F29">
-        <v>88.0933273998411</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G29">
-        <v>111.2124866095232</v>
+        <v>188.5776946857133</v>
       </c>
       <c r="H29">
-        <v>12.28395351216045</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I29">
-        <v>623.8017928979631</v>
+        <v>1057.750866218285</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>254.6650681964196</v>
+        <v>431.8233765069725</v>
       </c>
       <c r="C30">
-        <v>20.15162648547082</v>
+        <v>34.17014925797226</v>
       </c>
       <c r="D30">
-        <v>148.0748946806603</v>
+        <v>251.0835170672066</v>
       </c>
       <c r="E30">
-        <v>29.37837310475942</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F30">
-        <v>76.91397113082576</v>
+        <v>130.4193423522697</v>
       </c>
       <c r="G30">
-        <v>89.68748920122842</v>
+        <v>152.0787860368655</v>
       </c>
       <c r="H30">
-        <v>8.774252508686036</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I30">
-        <v>627.6456753080503</v>
+        <v>1064.268753783216</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>260.711585178737</v>
+        <v>442.076166172641</v>
       </c>
       <c r="C31">
-        <v>18.18561414542488</v>
+        <v>30.8364761596335</v>
       </c>
       <c r="D31">
-        <v>162.5604822037684</v>
+        <v>275.6460350411725</v>
       </c>
       <c r="E31">
-        <v>45.69969149629242</v>
+        <v>77.49078123284367</v>
       </c>
       <c r="F31">
-        <v>65.73461486181037</v>
+        <v>111.4630425917654</v>
       </c>
       <c r="G31">
-        <v>75.33749092903183</v>
+        <v>127.7461802709671</v>
       </c>
       <c r="H31">
-        <v>13.16137876302905</v>
+        <v>22.31712051122318</v>
       </c>
       <c r="I31">
-        <v>641.3908575780939</v>
+        <v>1087.575801980246</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>287.5652341296163</v>
+        <v>487.6106143936973</v>
       </c>
       <c r="C32">
-        <v>19.66012340045933</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D32">
-        <v>141.6368557815011</v>
+        <v>240.1668424121106</v>
       </c>
       <c r="E32">
-        <v>55.49248253121223</v>
+        <v>94.09594863988161</v>
       </c>
       <c r="F32">
-        <v>64.84026636028915</v>
+        <v>109.946538610925</v>
       </c>
       <c r="G32">
-        <v>48.43124416866335</v>
+        <v>82.12254445990737</v>
       </c>
       <c r="H32">
-        <v>22.81305652258369</v>
+        <v>38.68300888612018</v>
       </c>
       <c r="I32">
-        <v>640.4392628943252</v>
+        <v>1085.96222838603</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>319.2205289193949</v>
+        <v>541.2869838198433</v>
       </c>
       <c r="C33">
-        <v>12.77908021029857</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D33">
-        <v>109.4466612857054</v>
+        <v>185.5834691366309</v>
       </c>
       <c r="E33">
-        <v>84.87085563597164</v>
+        <v>143.9114508609954</v>
       </c>
       <c r="F33">
-        <v>63.05156935724668</v>
+        <v>106.9135306492444</v>
       </c>
       <c r="G33">
-        <v>41.25624503256507</v>
+        <v>69.95624157695816</v>
       </c>
       <c r="H33">
-        <v>6.141976756080225</v>
+        <v>10.41465623857082</v>
       </c>
       <c r="I33">
-        <v>636.7669171972625</v>
+        <v>1079.735207421445</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>309.9729147111449</v>
+        <v>525.6062466841155</v>
       </c>
       <c r="C34">
-        <v>8.355552445195215</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D34">
-        <v>90.13254458822799</v>
+        <v>152.8334451713431</v>
       </c>
       <c r="E34">
-        <v>114.2492287407311</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F34">
-        <v>33.98524305780673</v>
+        <v>57.62715127193314</v>
       </c>
       <c r="G34">
-        <v>35.87499568049136</v>
+        <v>60.83151441474624</v>
       </c>
       <c r="H34">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I34">
-        <v>593.4479044744658</v>
+        <v>1006.281229326268</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>218.5638050372904</v>
+        <v>370.6081911501882</v>
       </c>
       <c r="C35">
-        <v>7.37254627517225</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D35">
-        <v>78.8659765146995</v>
+        <v>133.7292645249253</v>
       </c>
       <c r="E35">
-        <v>88.13511931427826</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F35">
-        <v>17.43979577966398</v>
+        <v>29.57182762638674</v>
       </c>
       <c r="G35">
-        <v>21.52499740829482</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="H35">
-        <v>2.63227575260581</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I35">
-        <v>434.534516082005</v>
+        <v>736.8193968347042</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>185.3079616345456</v>
+        <v>314.2178479890122</v>
       </c>
       <c r="C36">
-        <v>15.23659563535598</v>
+        <v>25.83596651212536</v>
       </c>
       <c r="D36">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E36">
-        <v>75.07806460105182</v>
+        <v>127.3062834539574</v>
       </c>
       <c r="F36">
-        <v>16.54544727814275</v>
+        <v>28.0553236455464</v>
       </c>
       <c r="G36">
-        <v>34.08124589646678</v>
+        <v>57.7899386940089</v>
       </c>
       <c r="H36">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I36">
-        <v>380.2405612144945</v>
+        <v>644.7557342332734</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>148.6731822710942</v>
+        <v>252.098004720551</v>
       </c>
       <c r="C37">
-        <v>11.30457095526412</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D37">
-        <v>41.84725284453442</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E37">
-        <v>63.65314172697872</v>
+        <v>107.9335881457465</v>
       </c>
       <c r="F37">
-        <v>9.390659265972911</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G37">
-        <v>21.52499740829482</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="H37">
-        <v>1.754850501737207</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I37">
-        <v>298.1486549738764</v>
+        <v>505.5564149557034</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>112.7497578467389</v>
+        <v>191.1843720009921</v>
       </c>
       <c r="C38">
-        <v>12.77908021029857</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D38">
-        <v>35.40921394537527</v>
+        <v>60.04171060302765</v>
       </c>
       <c r="E38">
-        <v>21.21771390899291</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F38">
-        <v>6.260439510648607</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G38">
-        <v>14.34999827219655</v>
+        <v>24.33260576589849</v>
       </c>
       <c r="H38">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I38">
-        <v>203.6436289451194</v>
+        <v>345.3087621243329</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>70.60197770529234</v>
+        <v>119.7163969785392</v>
       </c>
       <c r="C39">
-        <v>8.355552445195215</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D39">
-        <v>27.36166532142636</v>
+        <v>46.39586728415773</v>
       </c>
       <c r="E39">
-        <v>14.68918655237971</v>
+        <v>24.90775111055688</v>
       </c>
       <c r="F39">
-        <v>9.837833516733525</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G39">
-        <v>23.31874719231939</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H39">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I39">
-        <v>155.0423879842152</v>
+        <v>262.8979622341039</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>52.99594296266274</v>
+        <v>89.86268589321077</v>
       </c>
       <c r="C40">
-        <v>11.7960740402756</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D40">
-        <v>14.48558752310807</v>
+        <v>24.56251797396586</v>
       </c>
       <c r="E40">
-        <v>4.896395517459903</v>
+        <v>8.302583703518966</v>
       </c>
       <c r="F40">
-        <v>4.024568256845533</v>
+        <v>6.824267913781557</v>
       </c>
       <c r="G40">
-        <v>16.14374805622111</v>
+        <v>27.37418148663581</v>
       </c>
       <c r="H40">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I40">
-        <v>105.2197416074415</v>
+        <v>178.416083595227</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>33.78935960706686</v>
+        <v>57.29500107285253</v>
       </c>
       <c r="C41">
-        <v>13.27058329531005</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="E41">
-        <v>1.632131839153301</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F41">
-        <v>8.496310764451682</v>
+        <v>14.40678781798328</v>
       </c>
       <c r="G41">
-        <v>16.14374805622111</v>
+        <v>27.37418148663581</v>
       </c>
       <c r="H41">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I41">
-        <v>74.20955881307161</v>
+        <v>125.8335997265127</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>20.27361576424013</v>
+        <v>34.37700064371149</v>
       </c>
       <c r="C42">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D42">
-        <v>14.48558752310807</v>
+        <v>24.56251797396586</v>
       </c>
       <c r="F42">
-        <v>6.260439510648607</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G42">
-        <v>26.90624676036852</v>
+        <v>45.62363581105965</v>
       </c>
       <c r="I42">
-        <v>78.73895742861797</v>
+        <v>133.5138843354826</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>25.07526160313909</v>
+        <v>42.51892184880106</v>
       </c>
       <c r="C43">
-        <v>7.37254627517225</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D43">
-        <v>11.2665680735285</v>
+        <v>19.10418064641789</v>
       </c>
       <c r="E43">
-        <v>6.528527356613205</v>
+        <v>11.07011160469196</v>
       </c>
       <c r="F43">
-        <v>6.260439510648607</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G43">
-        <v>34.08124589646678</v>
+        <v>57.7899386940089</v>
       </c>
       <c r="I43">
-        <v>90.58458871556843</v>
+        <v>153.5999547785726</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>41.43642520235043</v>
+        <v>70.26176447355071</v>
       </c>
       <c r="C44">
-        <v>6.389540105149284</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D44">
-        <v>22.533136147057</v>
+        <v>38.20836129283578</v>
       </c>
       <c r="E44">
-        <v>3.264263678306603</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F44">
-        <v>10.28500776749414</v>
+        <v>17.43979577966398</v>
       </c>
       <c r="G44">
-        <v>41.25624503256507</v>
+        <v>69.95624157695816</v>
       </c>
       <c r="I44">
-        <v>125.1646179329225</v>
+        <v>212.2356564949555</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>93.89885196069105</v>
+        <v>159.2197924550848</v>
       </c>
       <c r="C45">
-        <v>7.37254627517225</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D45">
-        <v>53.11382091806294</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E45">
-        <v>40.80329597883252</v>
+        <v>69.18819752932471</v>
       </c>
       <c r="F45">
-        <v>25.93610654411565</v>
+        <v>43.97861544437002</v>
       </c>
       <c r="G45">
-        <v>64.57499222488445</v>
+        <v>109.4967259465432</v>
       </c>
       <c r="H45">
-        <v>0.8774252508686036</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I45">
-        <v>286.5770391526275</v>
+        <v>485.9349794327161</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>173.2149276699111</v>
+        <v>293.7122686576756</v>
       </c>
       <c r="C46">
-        <v>7.864049360183732</v>
+        <v>13.33469239335503</v>
       </c>
       <c r="D46">
-        <v>94.96107376259735</v>
+        <v>161.0209511626651</v>
       </c>
       <c r="E46">
-        <v>146.8918655237971</v>
+        <v>249.0775111055689</v>
       </c>
       <c r="F46">
-        <v>44.71742507606147</v>
+        <v>75.82519904201726</v>
       </c>
       <c r="G46">
-        <v>105.8312372574495</v>
+        <v>179.4529675235013</v>
       </c>
       <c r="H46">
-        <v>3.509701003474414</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I46">
-        <v>576.9902796534747</v>
+        <v>978.3748220211094</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>243.8169053752035</v>
+        <v>413.4286656362148</v>
       </c>
       <c r="C47">
-        <v>4.915030850114833</v>
+        <v>8.33418274584689</v>
       </c>
       <c r="D47">
-        <v>77.25646678990971</v>
+        <v>131.0000958611513</v>
       </c>
       <c r="E47">
-        <v>115.8813605798844</v>
+        <v>196.4944809832822</v>
       </c>
       <c r="F47">
-        <v>51.87221308823131</v>
+        <v>87.95723088874004</v>
       </c>
       <c r="G47">
-        <v>105.8312372574495</v>
+        <v>179.4529675235013</v>
       </c>
       <c r="H47">
-        <v>7.019402006948829</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I47">
-        <v>606.592615947742</v>
+        <v>1028.570087911389</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>298.0577194812846</v>
+        <v>505.4022199900041</v>
       </c>
       <c r="C48">
-        <v>10.81306787025263</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D48">
-        <v>125.5417585336033</v>
+        <v>212.8751557743707</v>
       </c>
       <c r="E48">
-        <v>62.02100988782544</v>
+        <v>105.1660602445735</v>
       </c>
       <c r="F48">
-        <v>62.15722085572544</v>
+        <v>105.397026668404</v>
       </c>
       <c r="G48">
-        <v>152.4687316420883</v>
+        <v>258.5339362626715</v>
       </c>
       <c r="H48">
-        <v>8.774252508686036</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I48">
-        <v>719.8337607794657</v>
+        <v>1220.587681321702</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>224.4324832848336</v>
+        <v>380.559428178631</v>
       </c>
       <c r="C49">
-        <v>6.881043190160769</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D49">
-        <v>117.4942099096544</v>
+        <v>199.2293124555009</v>
       </c>
       <c r="E49">
-        <v>132.2026789714173</v>
+        <v>224.169759995012</v>
       </c>
       <c r="F49">
-        <v>70.65353162017712</v>
+        <v>119.8038144863873</v>
       </c>
       <c r="G49">
-        <v>243.9499706273412</v>
+        <v>413.6542980202743</v>
       </c>
       <c r="H49">
-        <v>17.54850501737207</v>
+        <v>29.7561606816309</v>
       </c>
       <c r="I49">
-        <v>813.1624226209565</v>
+        <v>1378.840629661622</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>336.532743143702</v>
+        <v>197.9795915155984</v>
       </c>
       <c r="C2">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D2">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E2">
-        <v>113.4686439480925</v>
+        <v>66.75271941987445</v>
       </c>
       <c r="F2">
-        <v>149.375642112774</v>
+        <v>87.87652675816798</v>
       </c>
       <c r="G2">
-        <v>547.4836297327162</v>
+        <v>322.0803549854778</v>
       </c>
       <c r="H2">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I2">
-        <v>1264.185275087179</v>
+        <v>743.7103505108897</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>403.7789812449972</v>
+        <v>237.5400296051847</v>
       </c>
       <c r="C3">
-        <v>44.17116855298852</v>
+        <v>25.98555440756363</v>
       </c>
       <c r="D3">
-        <v>169.208457153987</v>
+        <v>99.5440173678027</v>
       </c>
       <c r="E3">
-        <v>49.81550222111377</v>
+        <v>29.30607194043268</v>
       </c>
       <c r="F3">
-        <v>121.3203184672277</v>
+        <v>71.37179838226842</v>
       </c>
       <c r="G3">
-        <v>179.4529675235013</v>
+        <v>105.5707830230177</v>
       </c>
       <c r="H3">
-        <v>20.82931247714163</v>
+        <v>12.25372228940698</v>
       </c>
       <c r="I3">
-        <v>988.5767076409571</v>
+        <v>581.5719770156768</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>433.9342449675514</v>
+        <v>255.2801363718154</v>
       </c>
       <c r="C4">
-        <v>45.83800510215789</v>
+        <v>26.96614136633962</v>
       </c>
       <c r="D4">
-        <v>155.5626138351171</v>
+        <v>91.5162740316896</v>
       </c>
       <c r="E4">
-        <v>35.97786271524884</v>
+        <v>21.1654964014236</v>
       </c>
       <c r="F4">
-        <v>129.6610903618496</v>
+        <v>76.27860952104938</v>
       </c>
       <c r="G4">
-        <v>167.2866646405521</v>
+        <v>98.4134418011182</v>
       </c>
       <c r="H4">
-        <v>19.34150444306009</v>
+        <v>11.37845641159219</v>
       </c>
       <c r="I4">
-        <v>987.6019860655369</v>
+        <v>580.998555905028</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>426.6969816741385</v>
+        <v>251.0225107478242</v>
       </c>
       <c r="C5">
-        <v>40.83749545464977</v>
+        <v>24.02438049001166</v>
       </c>
       <c r="D5">
-        <v>139.1876018524732</v>
+        <v>81.88298202835384</v>
       </c>
       <c r="E5">
-        <v>52.58303012228676</v>
+        <v>30.93418704823449</v>
       </c>
       <c r="F5">
-        <v>153.1669020648749</v>
+        <v>90.10689545761387</v>
       </c>
       <c r="G5">
-        <v>173.3698160820267</v>
+        <v>101.992112412068</v>
       </c>
       <c r="H5">
-        <v>19.34150444306009</v>
+        <v>11.37845641159219</v>
       </c>
       <c r="I5">
-        <v>1005.18333169351</v>
+        <v>591.3415245956983</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>440.5684029865131</v>
+        <v>259.182959860474</v>
       </c>
       <c r="C6">
-        <v>44.17116855298852</v>
+        <v>25.98555440756363</v>
       </c>
       <c r="D6">
-        <v>174.666794481535</v>
+        <v>102.755114702248</v>
       </c>
       <c r="E6">
-        <v>52.58303012228676</v>
+        <v>30.93418704823449</v>
       </c>
       <c r="F6">
-        <v>133.4523503139504</v>
+        <v>78.50897822049525</v>
       </c>
       <c r="G6">
-        <v>139.9124831539163</v>
+        <v>82.30942405184435</v>
       </c>
       <c r="H6">
-        <v>13.39027230673391</v>
+        <v>7.877392900333057</v>
       </c>
       <c r="I6">
-        <v>998.7445019179241</v>
+        <v>587.5536111911927</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>451.1227452894071</v>
+        <v>265.3919972287949</v>
       </c>
       <c r="C7">
-        <v>40.00407718006507</v>
+        <v>23.53408701062367</v>
       </c>
       <c r="D7">
-        <v>191.0418064641789</v>
+        <v>112.3884067055837</v>
       </c>
       <c r="E7">
-        <v>80.25830913401667</v>
+        <v>47.21533812625265</v>
       </c>
       <c r="F7">
-        <v>114.4960505534461</v>
+        <v>67.35713472326582</v>
       </c>
       <c r="G7">
-        <v>118.6214531087551</v>
+        <v>69.7840769135202</v>
       </c>
       <c r="H7">
-        <v>20.82931247714163</v>
+        <v>12.25372228940698</v>
       </c>
       <c r="I7">
-        <v>1016.373754207011</v>
+        <v>597.9247629974478</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>497.5618514221401</v>
+        <v>292.7117616494062</v>
       </c>
       <c r="C8">
-        <v>43.33775027840383</v>
+        <v>25.49526092817564</v>
       </c>
       <c r="D8">
-        <v>166.479288490213</v>
+        <v>97.93846870058009</v>
       </c>
       <c r="E8">
-        <v>96.8634765410546</v>
+        <v>56.98402877306357</v>
       </c>
       <c r="F8">
-        <v>112.9795465726057</v>
+        <v>66.46498724348746</v>
       </c>
       <c r="G8">
-        <v>76.03939301843276</v>
+        <v>44.73338263687192</v>
       </c>
       <c r="H8">
-        <v>35.70739281795709</v>
+        <v>21.00638106755482</v>
       </c>
       <c r="I8">
-        <v>1028.968699140807</v>
+        <v>605.3342709991397</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>552.4444313971886</v>
+        <v>324.9987559646739</v>
       </c>
       <c r="C9">
-        <v>28.33622133587944</v>
+        <v>16.66997829919177</v>
       </c>
       <c r="D9">
-        <v>128.2709271973773</v>
+        <v>75.46078735946335</v>
       </c>
       <c r="E9">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F9">
-        <v>109.946538610925</v>
+        <v>64.68069228393075</v>
       </c>
       <c r="G9">
-        <v>63.87309013548353</v>
+        <v>37.57604141497241</v>
       </c>
       <c r="H9">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I9">
-        <v>1041.244563544685</v>
+        <v>612.556066410419</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>536.4621416242346</v>
+        <v>315.5964993783596</v>
       </c>
       <c r="C10">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D10">
-        <v>106.4375778871854</v>
+        <v>62.61639802168234</v>
       </c>
       <c r="E10">
-        <v>199.2620088844551</v>
+        <v>117.2242877617307</v>
       </c>
       <c r="F10">
-        <v>59.14365525277348</v>
+        <v>34.79375171135585</v>
       </c>
       <c r="G10">
-        <v>54.74836297327161</v>
+        <v>32.20803549854778</v>
       </c>
       <c r="H10">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I10">
-        <v>975.8767566968648</v>
+        <v>574.1006947960269</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>378.1470070808265</v>
+        <v>222.4609388535486</v>
       </c>
       <c r="C11">
-        <v>15.83494721710909</v>
+        <v>9.315576108371872</v>
       </c>
       <c r="D11">
-        <v>92.79173456831546</v>
+        <v>54.58865468556923</v>
       </c>
       <c r="E11">
-        <v>154.9815624656873</v>
+        <v>91.17444603690167</v>
       </c>
       <c r="F11">
-        <v>30.33007961680692</v>
+        <v>17.84294959556711</v>
       </c>
       <c r="G11">
-        <v>33.45733292811043</v>
+        <v>19.68268836022364</v>
       </c>
       <c r="H11">
-        <v>4.463424102244636</v>
+        <v>2.625797633444352</v>
       </c>
       <c r="I11">
-        <v>710.0060879791004</v>
+        <v>417.6910512736265</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>320.5504533707484</v>
+        <v>188.577334929284</v>
       </c>
       <c r="C12">
-        <v>33.33673098338756</v>
+        <v>19.61173917551972</v>
       </c>
       <c r="D12">
-        <v>62.77087926680166</v>
+        <v>36.92761934612036</v>
       </c>
       <c r="E12">
-        <v>130.0738113551304</v>
+        <v>76.52141006668533</v>
       </c>
       <c r="F12">
-        <v>28.81357563596657</v>
+        <v>16.95080211578875</v>
       </c>
       <c r="G12">
-        <v>51.70678725253429</v>
+        <v>30.4187001930729</v>
       </c>
       <c r="H12">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I12">
-        <v>628.7400458986505</v>
+        <v>369.8828717042858</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>257.2243995533851</v>
+        <v>151.3231107193596</v>
       </c>
       <c r="C13">
-        <v>25.00254823754067</v>
+        <v>14.7088043816398</v>
       </c>
       <c r="D13">
-        <v>49.12503594793171</v>
+        <v>28.89987601000724</v>
       </c>
       <c r="E13">
-        <v>110.7011160469195</v>
+        <v>65.12460431207263</v>
       </c>
       <c r="F13">
-        <v>16.6815437892438</v>
+        <v>9.813622277561906</v>
       </c>
       <c r="G13">
-        <v>33.45733292811043</v>
+        <v>19.68268836022364</v>
       </c>
       <c r="H13">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I13">
-        <v>495.1675925712944</v>
+        <v>291.3032378164945</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>195.1045562849241</v>
+        <v>114.7784907801005</v>
       </c>
       <c r="C14">
-        <v>28.33622133587944</v>
+        <v>16.66997829919177</v>
       </c>
       <c r="D14">
-        <v>40.93752995660977</v>
+        <v>24.08323000833937</v>
       </c>
       <c r="E14">
-        <v>35.97786271524884</v>
+        <v>21.1654964014236</v>
       </c>
       <c r="F14">
-        <v>10.61552786588242</v>
+        <v>6.245032358448487</v>
       </c>
       <c r="G14">
-        <v>21.29103004516118</v>
+        <v>12.52534713832414</v>
       </c>
       <c r="H14">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I14">
-        <v>333.7505362377872</v>
+        <v>196.3428408636427</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>122.1288180763435</v>
+        <v>71.84743240485423</v>
       </c>
       <c r="C15">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D15">
-        <v>32.75002396528782</v>
+        <v>19.2665840066715</v>
       </c>
       <c r="E15">
-        <v>24.90775111055688</v>
+        <v>14.65303597021634</v>
       </c>
       <c r="F15">
-        <v>17.43979577966398</v>
+        <v>10.25969601745108</v>
       </c>
       <c r="G15">
-        <v>36.49890864884774</v>
+        <v>21.47202366569852</v>
       </c>
       <c r="H15">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I15">
-        <v>253.5483076556446</v>
+        <v>149.1604944892423</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>91.67200171656403</v>
+        <v>53.92992457055725</v>
       </c>
       <c r="C16">
-        <v>25.83596651212536</v>
+        <v>15.19909786102779</v>
       </c>
       <c r="D16">
-        <v>16.37501198264391</v>
+        <v>9.633292003335749</v>
       </c>
       <c r="E16">
-        <v>8.302583703518966</v>
+        <v>4.884345323405444</v>
       </c>
       <c r="F16">
-        <v>6.824267913781557</v>
+        <v>4.014663659002598</v>
       </c>
       <c r="G16">
-        <v>24.33260576589849</v>
+        <v>14.31468244379901</v>
       </c>
       <c r="H16">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I16">
-        <v>174.8302456286139</v>
+        <v>102.8512717389426</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>58.50121162175468</v>
+        <v>34.4158071272635</v>
       </c>
       <c r="C17">
-        <v>29.16963961046412</v>
+        <v>17.16027177857976</v>
       </c>
       <c r="E17">
-        <v>2.767527901172989</v>
+        <v>1.628115107801816</v>
       </c>
       <c r="F17">
-        <v>14.40678781798328</v>
+        <v>8.475401057894373</v>
       </c>
       <c r="G17">
-        <v>24.33260576589849</v>
+        <v>14.31468244379901</v>
       </c>
       <c r="H17">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I17">
-        <v>130.6655807513551</v>
+        <v>76.86954339315325</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>34.98010591816257</v>
+        <v>20.57852384929157</v>
       </c>
       <c r="C18">
-        <v>24.16912996295598</v>
+        <v>14.2185109022518</v>
       </c>
       <c r="D18">
-        <v>16.37501198264391</v>
+        <v>9.633292003335749</v>
       </c>
       <c r="F18">
-        <v>10.61552786588242</v>
+        <v>6.245032358448487</v>
       </c>
       <c r="G18">
-        <v>42.58206009032235</v>
+        <v>25.05069427664827</v>
       </c>
       <c r="I18">
-        <v>128.7218358199673</v>
+        <v>75.72605338997587</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>43.42357976047768</v>
+        <v>25.54575374394817</v>
       </c>
       <c r="C19">
-        <v>15.83494721710909</v>
+        <v>9.315576108371872</v>
       </c>
       <c r="D19">
-        <v>13.64584331886992</v>
+        <v>8.027743336113124</v>
       </c>
       <c r="E19">
-        <v>11.07011160469196</v>
+        <v>6.512460431207263</v>
       </c>
       <c r="F19">
-        <v>10.61552786588242</v>
+        <v>6.245032358448487</v>
       </c>
       <c r="G19">
-        <v>51.70678725253429</v>
+        <v>30.4187001930729</v>
       </c>
       <c r="I19">
-        <v>146.2967970195654</v>
+        <v>86.06526617116182</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>71.7695276596784</v>
+        <v>42.22145410458101</v>
       </c>
       <c r="C20">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D20">
-        <v>27.29168663773983</v>
+        <v>16.05548667222625</v>
       </c>
       <c r="E20">
-        <v>5.535055802345978</v>
+        <v>3.256230215603631</v>
       </c>
       <c r="F20">
-        <v>18.19804777008415</v>
+        <v>10.70576975734026</v>
       </c>
       <c r="G20">
-        <v>63.87309013548353</v>
+        <v>37.57604141497241</v>
       </c>
       <c r="I20">
-        <v>200.8355186732716</v>
+        <v>118.1499713143195</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>162.5368714645658</v>
+        <v>95.61917547213939</v>
       </c>
       <c r="C21">
-        <v>15.83494721710909</v>
+        <v>9.315576108371872</v>
       </c>
       <c r="D21">
-        <v>62.77087926680166</v>
+        <v>36.92761934612036</v>
       </c>
       <c r="E21">
-        <v>71.95572543049768</v>
+        <v>42.33099280284721</v>
       </c>
       <c r="F21">
-        <v>45.49511942521037</v>
+        <v>26.76442439335066</v>
       </c>
       <c r="G21">
-        <v>100.3719987843313</v>
+        <v>59.04806508067092</v>
       </c>
       <c r="H21">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I21">
-        <v>460.4533496225973</v>
+        <v>270.8811190813152</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>299.7433214021862</v>
+        <v>176.3366612603089</v>
       </c>
       <c r="C22">
-        <v>17.50178376627847</v>
+        <v>10.29616306714786</v>
       </c>
       <c r="D22">
-        <v>111.8959152147334</v>
+        <v>65.82749535612759</v>
       </c>
       <c r="E22">
-        <v>257.3800948090879</v>
+        <v>151.4147050255689</v>
       </c>
       <c r="F22">
-        <v>78.09995501327781</v>
+        <v>45.9455952085853</v>
       </c>
       <c r="G22">
-        <v>164.2450889198147</v>
+        <v>96.62410649564333</v>
       </c>
       <c r="H22">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I22">
-        <v>934.8173912617048</v>
+        <v>549.9457899246411</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>421.8721394785298</v>
+        <v>248.184093665163</v>
       </c>
       <c r="C23">
-        <v>10.83443756960096</v>
+        <v>6.373815232043909</v>
       </c>
       <c r="D23">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E23">
-        <v>202.0295367856281</v>
+        <v>118.8524028695326</v>
       </c>
       <c r="F23">
-        <v>90.23198686000055</v>
+        <v>53.08277504681215</v>
       </c>
       <c r="G23">
-        <v>164.2450889198147</v>
+        <v>96.62410649564333</v>
       </c>
       <c r="H23">
-        <v>10.41465623857082</v>
+        <v>6.126861144703488</v>
       </c>
       <c r="I23">
-        <v>989.6904117566866</v>
+        <v>582.2271604722451</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>515.6550096556725</v>
+        <v>303.3558257093847</v>
       </c>
       <c r="C24">
-        <v>23.33571168837129</v>
+        <v>13.72821742286381</v>
       </c>
       <c r="D24">
-        <v>147.3751078437951</v>
+        <v>86.69962803002173</v>
       </c>
       <c r="E24">
-        <v>107.9335881457465</v>
+        <v>63.4964892042708</v>
       </c>
       <c r="F24">
-        <v>108.4300346300847</v>
+        <v>63.78854480415241</v>
       </c>
       <c r="G24">
-        <v>237.2429062175102</v>
+        <v>139.5681538270404</v>
       </c>
       <c r="H24">
-        <v>13.39027230673391</v>
+        <v>7.877392900333057</v>
       </c>
       <c r="I24">
-        <v>1153.362630487914</v>
+        <v>678.5142518980668</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>388.399796746495</v>
+        <v>228.4925751542031</v>
       </c>
       <c r="C25">
-        <v>15.0015289425244</v>
+        <v>8.825282628983874</v>
       </c>
       <c r="D25">
-        <v>139.1876018524732</v>
+        <v>81.88298202835384</v>
       </c>
       <c r="E25">
-        <v>229.704815797358</v>
+        <v>135.1335539475507</v>
       </c>
       <c r="F25">
-        <v>122.836822448068</v>
+        <v>72.26394586204675</v>
       </c>
       <c r="G25">
-        <v>380.1969650921639</v>
+        <v>223.6669131843596</v>
       </c>
       <c r="H25">
-        <v>26.78054461346781</v>
+        <v>15.75478580066611</v>
       </c>
       <c r="I25">
-        <v>1302.10807549255</v>
+        <v>766.0200386061639</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>329.8985851247401</v>
+        <v>194.0767680269396</v>
       </c>
       <c r="C26">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D26">
-        <v>131.0000958611513</v>
+        <v>77.06633602668599</v>
       </c>
       <c r="E26">
-        <v>110.7011160469195</v>
+        <v>65.12460431207263</v>
       </c>
       <c r="F26">
-        <v>145.5843821606732</v>
+        <v>85.64615805872211</v>
       </c>
       <c r="G26">
-        <v>596.1488412645132</v>
+        <v>350.7097198730758</v>
       </c>
       <c r="H26">
-        <v>10.41465623857082</v>
+        <v>6.126861144703488</v>
       </c>
       <c r="I26">
-        <v>1337.915787364508</v>
+        <v>787.0854365917954</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>395.6370600399077</v>
+        <v>232.7502007781944</v>
       </c>
       <c r="C27">
-        <v>34.17014925797226</v>
+        <v>20.10203265490772</v>
       </c>
       <c r="D27">
-        <v>242.8960110758846</v>
+        <v>142.8938313828136</v>
       </c>
       <c r="E27">
-        <v>47.04797431994081</v>
+        <v>27.67795683263086</v>
       </c>
       <c r="F27">
-        <v>118.287310505547</v>
+        <v>69.58750342271171</v>
       </c>
       <c r="G27">
-        <v>194.6608461271879</v>
+        <v>114.5174595503921</v>
       </c>
       <c r="H27">
-        <v>22.31712051122318</v>
+        <v>13.12898816722176</v>
       </c>
       <c r="I27">
-        <v>1055.016471837664</v>
+        <v>620.6579727888721</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>425.1892184880105</v>
+        <v>250.1355054094926</v>
       </c>
       <c r="C28">
-        <v>35.00356753255694</v>
+        <v>20.59232613429571</v>
       </c>
       <c r="D28">
-        <v>223.7918304294667</v>
+        <v>131.6549907122552</v>
       </c>
       <c r="E28">
-        <v>35.97786271524884</v>
+        <v>21.1654964014236</v>
       </c>
       <c r="F28">
-        <v>126.6280824001689</v>
+        <v>74.49431456149267</v>
       </c>
       <c r="G28">
-        <v>182.4945432442386</v>
+        <v>107.3601183284926</v>
       </c>
       <c r="H28">
-        <v>20.82931247714163</v>
+        <v>12.25372228940698</v>
       </c>
       <c r="I28">
-        <v>1049.914417286832</v>
+        <v>617.6564738368593</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>418.2535078318232</v>
+        <v>246.0552808531674</v>
       </c>
       <c r="C29">
-        <v>31.66989443421819</v>
+        <v>18.63115221674374</v>
       </c>
       <c r="D29">
-        <v>199.2293124555009</v>
+        <v>117.2050527072516</v>
       </c>
       <c r="E29">
-        <v>49.81550222111377</v>
+        <v>29.30607194043268</v>
       </c>
       <c r="F29">
-        <v>149.375642112774</v>
+        <v>87.87652675816798</v>
       </c>
       <c r="G29">
-        <v>188.5776946857133</v>
+        <v>110.9387889394424</v>
       </c>
       <c r="H29">
-        <v>20.82931247714163</v>
+        <v>12.25372228940698</v>
       </c>
       <c r="I29">
-        <v>1057.750866218285</v>
+        <v>622.2665957046127</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>431.8233765069725</v>
+        <v>254.0383288981512</v>
       </c>
       <c r="C30">
-        <v>34.17014925797226</v>
+        <v>20.10203265490772</v>
       </c>
       <c r="D30">
-        <v>251.0835170672066</v>
+        <v>147.7104773844814</v>
       </c>
       <c r="E30">
-        <v>49.81550222111377</v>
+        <v>29.30607194043268</v>
       </c>
       <c r="F30">
-        <v>130.4193423522697</v>
+        <v>76.72468326093855</v>
       </c>
       <c r="G30">
-        <v>152.0787860368655</v>
+        <v>89.46676527374383</v>
       </c>
       <c r="H30">
-        <v>14.87808034081545</v>
+        <v>8.75265877814784</v>
       </c>
       <c r="I30">
-        <v>1064.268753783216</v>
+        <v>626.1010181908033</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>442.076166172641</v>
+        <v>260.0699651988056</v>
       </c>
       <c r="C31">
-        <v>30.8364761596335</v>
+        <v>18.14085873735575</v>
       </c>
       <c r="D31">
-        <v>275.6460350411725</v>
+        <v>162.1604153894851</v>
       </c>
       <c r="E31">
-        <v>77.49078123284367</v>
+        <v>45.58722301845084</v>
       </c>
       <c r="F31">
-        <v>111.4630425917654</v>
+        <v>65.57283976370911</v>
       </c>
       <c r="G31">
-        <v>127.7461802709671</v>
+        <v>75.15208282994482</v>
       </c>
       <c r="H31">
-        <v>22.31712051122318</v>
+        <v>13.12898816722176</v>
       </c>
       <c r="I31">
-        <v>1087.575801980246</v>
+        <v>639.8123731049729</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>487.6106143936973</v>
+        <v>286.857526416418</v>
       </c>
       <c r="C32">
-        <v>33.33673098338756</v>
+        <v>19.61173917551972</v>
       </c>
       <c r="D32">
-        <v>240.1668424121106</v>
+        <v>141.2882827155909</v>
       </c>
       <c r="E32">
-        <v>94.09594863988161</v>
+        <v>55.35591366526172</v>
       </c>
       <c r="F32">
-        <v>109.946538610925</v>
+        <v>64.68069228393075</v>
       </c>
       <c r="G32">
-        <v>82.12254445990737</v>
+        <v>48.31205324782167</v>
       </c>
       <c r="H32">
-        <v>38.68300888612018</v>
+        <v>22.75691282318438</v>
       </c>
       <c r="I32">
-        <v>1085.96222838603</v>
+        <v>638.8631203277271</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>541.2869838198433</v>
+        <v>318.4349164610206</v>
       </c>
       <c r="C33">
-        <v>21.66887513920192</v>
+        <v>12.74763046408782</v>
       </c>
       <c r="D33">
-        <v>185.5834691366309</v>
+        <v>109.1773093711385</v>
       </c>
       <c r="E33">
-        <v>143.9114508609954</v>
+        <v>84.66198560569441</v>
       </c>
       <c r="F33">
-        <v>106.9135306492444</v>
+        <v>62.89639732437404</v>
       </c>
       <c r="G33">
-        <v>69.95624157695816</v>
+        <v>41.15471202592217</v>
       </c>
       <c r="H33">
-        <v>10.41465623857082</v>
+        <v>6.126861144703488</v>
       </c>
       <c r="I33">
-        <v>1079.735207421445</v>
+        <v>635.1998123969411</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>525.6062466841155</v>
+        <v>309.2100609423726</v>
       </c>
       <c r="C34">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D34">
-        <v>152.8334451713431</v>
+        <v>89.91072536446697</v>
       </c>
       <c r="E34">
-        <v>193.7269530821092</v>
+        <v>113.9680575461271</v>
       </c>
       <c r="F34">
-        <v>57.62715127193314</v>
+        <v>33.90160423157749</v>
       </c>
       <c r="G34">
-        <v>60.83151441474624</v>
+        <v>35.78670610949752</v>
       </c>
       <c r="H34">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I34">
-        <v>1006.281229326268</v>
+        <v>591.9874092214525</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>370.6081911501882</v>
+        <v>218.025912161891</v>
       </c>
       <c r="C35">
-        <v>12.50127411877034</v>
+        <v>7.354402190819898</v>
       </c>
       <c r="D35">
-        <v>133.7292645249253</v>
+        <v>78.67188469390857</v>
       </c>
       <c r="E35">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F35">
-        <v>29.57182762638674</v>
+        <v>17.39687585567793</v>
       </c>
       <c r="G35">
-        <v>36.49890864884774</v>
+        <v>21.47202366569852</v>
       </c>
       <c r="H35">
-        <v>4.463424102244636</v>
+        <v>2.625797633444352</v>
       </c>
       <c r="I35">
-        <v>736.8193968347042</v>
+        <v>433.4651120227384</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>314.2178479890122</v>
+        <v>184.8519125082916</v>
       </c>
       <c r="C36">
-        <v>25.83596651212536</v>
+        <v>15.19909786102779</v>
       </c>
       <c r="D36">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E36">
-        <v>127.3062834539574</v>
+        <v>74.89329495888353</v>
       </c>
       <c r="F36">
-        <v>28.0553236455464</v>
+        <v>16.50472837589957</v>
       </c>
       <c r="G36">
-        <v>57.7899386940089</v>
+        <v>33.99737080402265</v>
       </c>
       <c r="H36">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I36">
-        <v>644.7557342332734</v>
+        <v>379.3047764042865</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>252.098004720551</v>
+        <v>148.3072925690325</v>
       </c>
       <c r="C37">
-        <v>19.16862031544785</v>
+        <v>11.27675002592384</v>
       </c>
       <c r="D37">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E37">
-        <v>107.9335881457465</v>
+        <v>63.4964892042708</v>
       </c>
       <c r="F37">
-        <v>15.92329179882363</v>
+        <v>9.367548537672729</v>
       </c>
       <c r="G37">
-        <v>36.49890864884774</v>
+        <v>21.47202366569852</v>
       </c>
       <c r="H37">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I37">
-        <v>505.5564149557034</v>
+        <v>297.4149011060162</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>191.1843720009921</v>
+        <v>112.4722769004384</v>
       </c>
       <c r="C38">
-        <v>21.66887513920192</v>
+        <v>12.74763046408782</v>
       </c>
       <c r="D38">
-        <v>60.04171060302765</v>
+        <v>35.32207067889773</v>
       </c>
       <c r="E38">
-        <v>35.97786271524884</v>
+        <v>21.1654964014236</v>
       </c>
       <c r="F38">
-        <v>10.61552786588242</v>
+        <v>6.245032358448487</v>
       </c>
       <c r="G38">
-        <v>24.33260576589849</v>
+        <v>14.31468244379901</v>
       </c>
       <c r="H38">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I38">
-        <v>345.3087621243329</v>
+        <v>203.1424551249099</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>119.7163969785392</v>
+        <v>70.42822386352374</v>
       </c>
       <c r="C39">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D39">
-        <v>46.39586728415773</v>
+        <v>27.29432734278462</v>
       </c>
       <c r="E39">
-        <v>24.90775111055688</v>
+        <v>14.65303597021634</v>
       </c>
       <c r="F39">
-        <v>16.6815437892438</v>
+        <v>9.813622277561906</v>
       </c>
       <c r="G39">
-        <v>39.54048436958506</v>
+        <v>23.26135897117339</v>
       </c>
       <c r="H39">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I39">
-        <v>262.8979622341039</v>
+        <v>154.6608234526707</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>89.86268589321077</v>
+        <v>52.86551816455941</v>
       </c>
       <c r="C40">
-        <v>20.00203859003254</v>
+        <v>11.76704350531183</v>
       </c>
       <c r="D40">
-        <v>24.56251797396586</v>
+        <v>14.44993800500362</v>
       </c>
       <c r="E40">
-        <v>8.302583703518966</v>
+        <v>4.884345323405444</v>
       </c>
       <c r="F40">
-        <v>6.824267913781557</v>
+        <v>4.014663659002598</v>
       </c>
       <c r="G40">
-        <v>27.37418148663581</v>
+        <v>16.10401774927389</v>
       </c>
       <c r="H40">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I40">
-        <v>178.416083595227</v>
+        <v>104.9607922843716</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>57.29500107285253</v>
+        <v>33.70620285659827</v>
       </c>
       <c r="C41">
-        <v>22.5022934137866</v>
+        <v>13.23792394347582</v>
       </c>
       <c r="E41">
-        <v>2.767527901172989</v>
+        <v>1.628115107801816</v>
       </c>
       <c r="F41">
-        <v>14.40678781798328</v>
+        <v>8.475401057894373</v>
       </c>
       <c r="G41">
-        <v>27.37418148663581</v>
+        <v>16.10401774927389</v>
       </c>
       <c r="H41">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I41">
-        <v>125.8335997265127</v>
+        <v>74.02692659285896</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>34.37700064371149</v>
+        <v>20.22372171395897</v>
       </c>
       <c r="C42">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D42">
-        <v>24.56251797396586</v>
+        <v>14.44993800500362</v>
       </c>
       <c r="F42">
-        <v>10.61552786588242</v>
+        <v>6.245032358448487</v>
       </c>
       <c r="G42">
-        <v>45.62363581105965</v>
+        <v>26.84002958212315</v>
       </c>
       <c r="I42">
-        <v>133.5138843354826</v>
+        <v>78.54517820607008</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>42.51892184880106</v>
+        <v>25.01355054094925</v>
       </c>
       <c r="C43">
-        <v>12.50127411877034</v>
+        <v>7.354402190819898</v>
       </c>
       <c r="D43">
-        <v>19.10418064641789</v>
+        <v>11.23884067055837</v>
       </c>
       <c r="E43">
-        <v>11.07011160469196</v>
+        <v>6.512460431207263</v>
       </c>
       <c r="F43">
-        <v>10.61552786588242</v>
+        <v>6.245032358448487</v>
       </c>
       <c r="G43">
-        <v>57.7899386940089</v>
+        <v>33.99737080402265</v>
       </c>
       <c r="I43">
-        <v>153.5999547785726</v>
+        <v>90.36165699600592</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>70.26176447355071</v>
+        <v>41.33444876624949</v>
       </c>
       <c r="C44">
-        <v>10.83443756960096</v>
+        <v>6.373815232043909</v>
       </c>
       <c r="D44">
-        <v>38.20836129283578</v>
+        <v>22.47768134111674</v>
       </c>
       <c r="E44">
-        <v>5.535055802345978</v>
+        <v>3.256230215603631</v>
       </c>
       <c r="F44">
-        <v>17.43979577966398</v>
+        <v>10.25969601745108</v>
       </c>
       <c r="G44">
-        <v>69.95624157695816</v>
+        <v>41.15471202592217</v>
       </c>
       <c r="I44">
-        <v>212.2356564949555</v>
+        <v>124.856583598387</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>159.2197924550848</v>
+        <v>93.66776372780994</v>
       </c>
       <c r="C45">
-        <v>12.50127411877034</v>
+        <v>7.354402190819898</v>
       </c>
       <c r="D45">
-        <v>90.06256590454149</v>
+        <v>52.9831060183466</v>
       </c>
       <c r="E45">
-        <v>69.18819752932471</v>
+        <v>40.70287769504538</v>
       </c>
       <c r="F45">
-        <v>43.97861544437002</v>
+        <v>25.8722769135723</v>
       </c>
       <c r="G45">
-        <v>109.4967259465432</v>
+        <v>64.41607099709556</v>
       </c>
       <c r="H45">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I45">
-        <v>485.9349794327161</v>
+        <v>285.8717634205045</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>293.7122686576756</v>
+        <v>172.7886399069827</v>
       </c>
       <c r="C46">
-        <v>13.33469239335503</v>
+        <v>7.844695670207889</v>
       </c>
       <c r="D46">
-        <v>161.0209511626651</v>
+        <v>94.72737136613485</v>
       </c>
       <c r="E46">
-        <v>249.0775111055689</v>
+        <v>146.5303597021634</v>
       </c>
       <c r="F46">
-        <v>75.82519904201726</v>
+        <v>44.60737398891775</v>
       </c>
       <c r="G46">
-        <v>179.4529675235013</v>
+        <v>105.5707830230177</v>
       </c>
       <c r="H46">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I46">
-        <v>978.3748220211094</v>
+        <v>575.5702871686835</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>413.4286656362148</v>
+        <v>243.2168637705065</v>
       </c>
       <c r="C47">
-        <v>8.33418274584689</v>
+        <v>4.902934793879931</v>
       </c>
       <c r="D47">
-        <v>131.0000958611513</v>
+        <v>77.06633602668599</v>
       </c>
       <c r="E47">
-        <v>196.4944809832822</v>
+        <v>115.5961726539289</v>
       </c>
       <c r="F47">
-        <v>87.95723088874004</v>
+        <v>51.7445538271446</v>
       </c>
       <c r="G47">
-        <v>179.4529675235013</v>
+        <v>105.5707830230177</v>
       </c>
       <c r="H47">
-        <v>11.90246427265236</v>
+        <v>7.002127022518273</v>
       </c>
       <c r="I47">
-        <v>1028.570087911389</v>
+        <v>605.0997711176821</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>505.4022199900041</v>
+        <v>297.32418940873</v>
       </c>
       <c r="C48">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D48">
-        <v>212.8751557743707</v>
+        <v>125.2327960433647</v>
       </c>
       <c r="E48">
-        <v>105.1660602445735</v>
+        <v>61.86837409646898</v>
       </c>
       <c r="F48">
-        <v>105.397026668404</v>
+        <v>62.0042498445957</v>
       </c>
       <c r="G48">
-        <v>258.5339362626715</v>
+        <v>152.0935009653645</v>
       </c>
       <c r="H48">
-        <v>14.87808034081545</v>
+        <v>8.75265877814784</v>
       </c>
       <c r="I48">
-        <v>1220.587681321702</v>
+        <v>718.0622256832078</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>380.559428178631</v>
+        <v>223.880147394879</v>
       </c>
       <c r="C49">
-        <v>11.66785584418565</v>
+        <v>6.864108711431905</v>
       </c>
       <c r="D49">
-        <v>199.2293124555009</v>
+        <v>117.2050527072516</v>
       </c>
       <c r="E49">
-        <v>224.169759995012</v>
+        <v>131.8773237319471</v>
       </c>
       <c r="F49">
-        <v>119.8038144863873</v>
+        <v>70.47965090249006</v>
       </c>
       <c r="G49">
-        <v>413.6542980202743</v>
+        <v>243.3496015445832</v>
       </c>
       <c r="H49">
-        <v>29.7561606816309</v>
+        <v>17.50531755629568</v>
       </c>
       <c r="I49">
-        <v>1378.840629661622</v>
+        <v>811.1612025488787</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>197.9795915155984</v>
+        <v>336.532743143702</v>
       </c>
       <c r="C2">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D2">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E2">
-        <v>66.75271941987445</v>
+        <v>113.4686439480925</v>
       </c>
       <c r="F2">
-        <v>87.87652675816798</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G2">
-        <v>322.0803549854778</v>
+        <v>547.4836297327162</v>
       </c>
       <c r="H2">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I2">
-        <v>743.7103505108897</v>
+        <v>1264.185275087179</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>237.5400296051847</v>
+        <v>403.7789812449972</v>
       </c>
       <c r="C3">
-        <v>25.98555440756363</v>
+        <v>44.17116855298852</v>
       </c>
       <c r="D3">
-        <v>99.5440173678027</v>
+        <v>169.208457153987</v>
       </c>
       <c r="E3">
-        <v>29.30607194043268</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F3">
-        <v>71.37179838226842</v>
+        <v>121.3203184672277</v>
       </c>
       <c r="G3">
-        <v>105.5707830230177</v>
+        <v>179.4529675235013</v>
       </c>
       <c r="H3">
-        <v>12.25372228940698</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I3">
-        <v>581.5719770156768</v>
+        <v>988.5767076409571</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>255.2801363718154</v>
+        <v>433.9342449675514</v>
       </c>
       <c r="C4">
-        <v>26.96614136633962</v>
+        <v>45.83800510215789</v>
       </c>
       <c r="D4">
-        <v>91.5162740316896</v>
+        <v>155.5626138351171</v>
       </c>
       <c r="E4">
-        <v>21.1654964014236</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F4">
-        <v>76.27860952104938</v>
+        <v>129.6610903618496</v>
       </c>
       <c r="G4">
-        <v>98.4134418011182</v>
+        <v>167.2866646405521</v>
       </c>
       <c r="H4">
-        <v>11.37845641159219</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I4">
-        <v>580.998555905028</v>
+        <v>987.6019860655369</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>251.0225107478242</v>
+        <v>426.6969816741385</v>
       </c>
       <c r="C5">
-        <v>24.02438049001166</v>
+        <v>40.83749545464977</v>
       </c>
       <c r="D5">
-        <v>81.88298202835384</v>
+        <v>139.1876018524732</v>
       </c>
       <c r="E5">
-        <v>30.93418704823449</v>
+        <v>52.58303012228676</v>
       </c>
       <c r="F5">
-        <v>90.10689545761387</v>
+        <v>153.1669020648749</v>
       </c>
       <c r="G5">
-        <v>101.992112412068</v>
+        <v>173.3698160820267</v>
       </c>
       <c r="H5">
-        <v>11.37845641159219</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I5">
-        <v>591.3415245956983</v>
+        <v>1005.18333169351</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>259.182959860474</v>
+        <v>440.5684029865131</v>
       </c>
       <c r="C6">
-        <v>25.98555440756363</v>
+        <v>44.17116855298852</v>
       </c>
       <c r="D6">
-        <v>102.755114702248</v>
+        <v>174.666794481535</v>
       </c>
       <c r="E6">
-        <v>30.93418704823449</v>
+        <v>52.58303012228676</v>
       </c>
       <c r="F6">
-        <v>78.50897822049525</v>
+        <v>133.4523503139504</v>
       </c>
       <c r="G6">
-        <v>82.30942405184435</v>
+        <v>139.9124831539163</v>
       </c>
       <c r="H6">
-        <v>7.877392900333057</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I6">
-        <v>587.5536111911927</v>
+        <v>998.7445019179241</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>265.3919972287949</v>
+        <v>451.1227452894071</v>
       </c>
       <c r="C7">
-        <v>23.53408701062367</v>
+        <v>40.00407718006507</v>
       </c>
       <c r="D7">
-        <v>112.3884067055837</v>
+        <v>191.0418064641789</v>
       </c>
       <c r="E7">
-        <v>47.21533812625265</v>
+        <v>80.25830913401667</v>
       </c>
       <c r="F7">
-        <v>67.35713472326582</v>
+        <v>114.4960505534461</v>
       </c>
       <c r="G7">
-        <v>69.7840769135202</v>
+        <v>118.6214531087551</v>
       </c>
       <c r="H7">
-        <v>12.25372228940698</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I7">
-        <v>597.9247629974478</v>
+        <v>1016.373754207011</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>292.7117616494062</v>
+        <v>497.5618514221401</v>
       </c>
       <c r="C8">
-        <v>25.49526092817564</v>
+        <v>43.33775027840383</v>
       </c>
       <c r="D8">
-        <v>97.93846870058009</v>
+        <v>166.479288490213</v>
       </c>
       <c r="E8">
-        <v>56.98402877306357</v>
+        <v>96.8634765410546</v>
       </c>
       <c r="F8">
-        <v>66.46498724348746</v>
+        <v>112.9795465726057</v>
       </c>
       <c r="G8">
-        <v>44.73338263687192</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H8">
-        <v>21.00638106755482</v>
+        <v>35.70739281795709</v>
       </c>
       <c r="I8">
-        <v>605.3342709991397</v>
+        <v>1028.968699140807</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>324.9987559646739</v>
+        <v>552.4444313971886</v>
       </c>
       <c r="C9">
-        <v>16.66997829919177</v>
+        <v>28.33622133587944</v>
       </c>
       <c r="D9">
-        <v>75.46078735946335</v>
+        <v>128.2709271973773</v>
       </c>
       <c r="E9">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F9">
-        <v>64.68069228393075</v>
+        <v>109.946538610925</v>
       </c>
       <c r="G9">
-        <v>37.57604141497241</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H9">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I9">
-        <v>612.556066410419</v>
+        <v>1041.244563544685</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>315.5964993783596</v>
+        <v>536.4621416242346</v>
       </c>
       <c r="C10">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D10">
-        <v>62.61639802168234</v>
+        <v>106.4375778871854</v>
       </c>
       <c r="E10">
-        <v>117.2242877617307</v>
+        <v>199.2620088844551</v>
       </c>
       <c r="F10">
-        <v>34.79375171135585</v>
+        <v>59.14365525277348</v>
       </c>
       <c r="G10">
-        <v>32.20803549854778</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H10">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I10">
-        <v>574.1006947960269</v>
+        <v>975.8767566968648</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>222.4609388535486</v>
+        <v>378.1470070808265</v>
       </c>
       <c r="C11">
-        <v>9.315576108371872</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D11">
-        <v>54.58865468556923</v>
+        <v>92.79173456831546</v>
       </c>
       <c r="E11">
-        <v>91.17444603690167</v>
+        <v>154.9815624656873</v>
       </c>
       <c r="F11">
-        <v>17.84294959556711</v>
+        <v>30.33007961680692</v>
       </c>
       <c r="G11">
-        <v>19.68268836022364</v>
+        <v>33.45733292811043</v>
       </c>
       <c r="H11">
-        <v>2.625797633444352</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I11">
-        <v>417.6910512736265</v>
+        <v>710.0060879791004</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>188.577334929284</v>
+        <v>320.5504533707484</v>
       </c>
       <c r="C12">
-        <v>19.61173917551972</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D12">
-        <v>36.92761934612036</v>
+        <v>62.77087926680166</v>
       </c>
       <c r="E12">
-        <v>76.52141006668533</v>
+        <v>130.0738113551304</v>
       </c>
       <c r="F12">
-        <v>16.95080211578875</v>
+        <v>28.81357563596657</v>
       </c>
       <c r="G12">
-        <v>30.4187001930729</v>
+        <v>51.70678725253429</v>
       </c>
       <c r="H12">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I12">
-        <v>369.8828717042858</v>
+        <v>628.7400458986505</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>151.3231107193596</v>
+        <v>257.2243995533851</v>
       </c>
       <c r="C13">
-        <v>14.7088043816398</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D13">
-        <v>28.89987601000724</v>
+        <v>49.12503594793171</v>
       </c>
       <c r="E13">
-        <v>65.12460431207263</v>
+        <v>110.7011160469195</v>
       </c>
       <c r="F13">
-        <v>9.813622277561906</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G13">
-        <v>19.68268836022364</v>
+        <v>33.45733292811043</v>
       </c>
       <c r="H13">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I13">
-        <v>291.3032378164945</v>
+        <v>495.1675925712944</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>114.7784907801005</v>
+        <v>195.1045562849241</v>
       </c>
       <c r="C14">
-        <v>16.66997829919177</v>
+        <v>28.33622133587944</v>
       </c>
       <c r="D14">
-        <v>24.08323000833937</v>
+        <v>40.93752995660977</v>
       </c>
       <c r="E14">
-        <v>21.1654964014236</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F14">
-        <v>6.245032358448487</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G14">
-        <v>12.52534713832414</v>
+        <v>21.29103004516118</v>
       </c>
       <c r="H14">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I14">
-        <v>196.3428408636427</v>
+        <v>333.7505362377872</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>71.84743240485423</v>
+        <v>122.1288180763435</v>
       </c>
       <c r="C15">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D15">
-        <v>19.2665840066715</v>
+        <v>32.75002396528782</v>
       </c>
       <c r="E15">
-        <v>14.65303597021634</v>
+        <v>24.90775111055688</v>
       </c>
       <c r="F15">
-        <v>10.25969601745108</v>
+        <v>17.43979577966398</v>
       </c>
       <c r="G15">
-        <v>21.47202366569852</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="H15">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I15">
-        <v>149.1604944892423</v>
+        <v>253.5483076556446</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>53.92992457055725</v>
+        <v>91.67200171656403</v>
       </c>
       <c r="C16">
-        <v>15.19909786102779</v>
+        <v>25.83596651212536</v>
       </c>
       <c r="D16">
-        <v>9.633292003335749</v>
+        <v>16.37501198264391</v>
       </c>
       <c r="E16">
-        <v>4.884345323405444</v>
+        <v>8.302583703518966</v>
       </c>
       <c r="F16">
-        <v>4.014663659002598</v>
+        <v>6.824267913781557</v>
       </c>
       <c r="G16">
-        <v>14.31468244379901</v>
+        <v>24.33260576589849</v>
       </c>
       <c r="H16">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I16">
-        <v>102.8512717389426</v>
+        <v>174.8302456286139</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>34.4158071272635</v>
+        <v>58.50121162175468</v>
       </c>
       <c r="C17">
-        <v>17.16027177857976</v>
+        <v>29.16963961046412</v>
       </c>
       <c r="E17">
-        <v>1.628115107801816</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F17">
-        <v>8.475401057894373</v>
+        <v>14.40678781798328</v>
       </c>
       <c r="G17">
-        <v>14.31468244379901</v>
+        <v>24.33260576589849</v>
       </c>
       <c r="H17">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I17">
-        <v>76.86954339315325</v>
+        <v>130.6655807513551</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>20.57852384929157</v>
+        <v>34.98010591816257</v>
       </c>
       <c r="C18">
-        <v>14.2185109022518</v>
+        <v>24.16912996295598</v>
       </c>
       <c r="D18">
-        <v>9.633292003335749</v>
+        <v>16.37501198264391</v>
       </c>
       <c r="F18">
-        <v>6.245032358448487</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G18">
-        <v>25.05069427664827</v>
+        <v>42.58206009032235</v>
       </c>
       <c r="I18">
-        <v>75.72605338997587</v>
+        <v>128.7218358199673</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>25.54575374394817</v>
+        <v>43.42357976047768</v>
       </c>
       <c r="C19">
-        <v>9.315576108371872</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D19">
-        <v>8.027743336113124</v>
+        <v>13.64584331886992</v>
       </c>
       <c r="E19">
-        <v>6.512460431207263</v>
+        <v>11.07011160469196</v>
       </c>
       <c r="F19">
-        <v>6.245032358448487</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G19">
-        <v>30.4187001930729</v>
+        <v>51.70678725253429</v>
       </c>
       <c r="I19">
-        <v>86.06526617116182</v>
+        <v>146.2967970195654</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>42.22145410458101</v>
+        <v>71.7695276596784</v>
       </c>
       <c r="C20">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D20">
-        <v>16.05548667222625</v>
+        <v>27.29168663773983</v>
       </c>
       <c r="E20">
-        <v>3.256230215603631</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F20">
-        <v>10.70576975734026</v>
+        <v>18.19804777008415</v>
       </c>
       <c r="G20">
-        <v>37.57604141497241</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="I20">
-        <v>118.1499713143195</v>
+        <v>200.8355186732716</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>95.61917547213939</v>
+        <v>162.5368714645658</v>
       </c>
       <c r="C21">
-        <v>9.315576108371872</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D21">
-        <v>36.92761934612036</v>
+        <v>62.77087926680166</v>
       </c>
       <c r="E21">
-        <v>42.33099280284721</v>
+        <v>71.95572543049768</v>
       </c>
       <c r="F21">
-        <v>26.76442439335066</v>
+        <v>45.49511942521037</v>
       </c>
       <c r="G21">
-        <v>59.04806508067092</v>
+        <v>100.3719987843313</v>
       </c>
       <c r="H21">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I21">
-        <v>270.8811190813152</v>
+        <v>460.4533496225973</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>176.3366612603089</v>
+        <v>299.7433214021862</v>
       </c>
       <c r="C22">
-        <v>10.29616306714786</v>
+        <v>17.50178376627847</v>
       </c>
       <c r="D22">
-        <v>65.82749535612759</v>
+        <v>111.8959152147334</v>
       </c>
       <c r="E22">
-        <v>151.4147050255689</v>
+        <v>257.3800948090879</v>
       </c>
       <c r="F22">
-        <v>45.9455952085853</v>
+        <v>78.09995501327781</v>
       </c>
       <c r="G22">
-        <v>96.62410649564333</v>
+        <v>164.2450889198147</v>
       </c>
       <c r="H22">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I22">
-        <v>549.9457899246411</v>
+        <v>934.8173912617048</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>248.184093665163</v>
+        <v>421.8721394785298</v>
       </c>
       <c r="C23">
-        <v>6.373815232043909</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D23">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E23">
-        <v>118.8524028695326</v>
+        <v>202.0295367856281</v>
       </c>
       <c r="F23">
-        <v>53.08277504681215</v>
+        <v>90.23198686000055</v>
       </c>
       <c r="G23">
-        <v>96.62410649564333</v>
+        <v>164.2450889198147</v>
       </c>
       <c r="H23">
-        <v>6.126861144703488</v>
+        <v>10.41465623857082</v>
       </c>
       <c r="I23">
-        <v>582.2271604722451</v>
+        <v>989.6904117566866</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>303.3558257093847</v>
+        <v>515.6550096556725</v>
       </c>
       <c r="C24">
-        <v>13.72821742286381</v>
+        <v>23.33571168837129</v>
       </c>
       <c r="D24">
-        <v>86.69962803002173</v>
+        <v>147.3751078437951</v>
       </c>
       <c r="E24">
-        <v>63.4964892042708</v>
+        <v>107.9335881457465</v>
       </c>
       <c r="F24">
-        <v>63.78854480415241</v>
+        <v>108.4300346300847</v>
       </c>
       <c r="G24">
-        <v>139.5681538270404</v>
+        <v>237.2429062175102</v>
       </c>
       <c r="H24">
-        <v>7.877392900333057</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I24">
-        <v>678.5142518980668</v>
+        <v>1153.362630487914</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>228.4925751542031</v>
+        <v>388.399796746495</v>
       </c>
       <c r="C25">
-        <v>8.825282628983874</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D25">
-        <v>81.88298202835384</v>
+        <v>139.1876018524732</v>
       </c>
       <c r="E25">
-        <v>135.1335539475507</v>
+        <v>229.704815797358</v>
       </c>
       <c r="F25">
-        <v>72.26394586204675</v>
+        <v>122.836822448068</v>
       </c>
       <c r="G25">
-        <v>223.6669131843596</v>
+        <v>380.1969650921639</v>
       </c>
       <c r="H25">
-        <v>15.75478580066611</v>
+        <v>26.78054461346781</v>
       </c>
       <c r="I25">
-        <v>766.0200386061639</v>
+        <v>1302.10807549255</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>194.0767680269396</v>
+        <v>329.8985851247401</v>
       </c>
       <c r="C26">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D26">
-        <v>77.06633602668599</v>
+        <v>131.0000958611513</v>
       </c>
       <c r="E26">
-        <v>65.12460431207263</v>
+        <v>110.7011160469195</v>
       </c>
       <c r="F26">
-        <v>85.64615805872211</v>
+        <v>145.5843821606732</v>
       </c>
       <c r="G26">
-        <v>350.7097198730758</v>
+        <v>596.1488412645132</v>
       </c>
       <c r="H26">
-        <v>6.126861144703488</v>
+        <v>10.41465623857082</v>
       </c>
       <c r="I26">
-        <v>787.0854365917954</v>
+        <v>1337.915787364508</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>232.7502007781944</v>
+        <v>395.6370600399077</v>
       </c>
       <c r="C27">
-        <v>20.10203265490772</v>
+        <v>34.17014925797226</v>
       </c>
       <c r="D27">
-        <v>142.8938313828136</v>
+        <v>242.8960110758846</v>
       </c>
       <c r="E27">
-        <v>27.67795683263086</v>
+        <v>47.04797431994081</v>
       </c>
       <c r="F27">
-        <v>69.58750342271171</v>
+        <v>118.287310505547</v>
       </c>
       <c r="G27">
-        <v>114.5174595503921</v>
+        <v>194.6608461271879</v>
       </c>
       <c r="H27">
-        <v>13.12898816722176</v>
+        <v>22.31712051122318</v>
       </c>
       <c r="I27">
-        <v>620.6579727888721</v>
+        <v>1055.016471837664</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>250.1355054094926</v>
+        <v>425.1892184880105</v>
       </c>
       <c r="C28">
-        <v>20.59232613429571</v>
+        <v>35.00356753255694</v>
       </c>
       <c r="D28">
-        <v>131.6549907122552</v>
+        <v>223.7918304294667</v>
       </c>
       <c r="E28">
-        <v>21.1654964014236</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F28">
-        <v>74.49431456149267</v>
+        <v>126.6280824001689</v>
       </c>
       <c r="G28">
-        <v>107.3601183284926</v>
+        <v>182.4945432442386</v>
       </c>
       <c r="H28">
-        <v>12.25372228940698</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I28">
-        <v>617.6564738368593</v>
+        <v>1049.914417286832</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>246.0552808531674</v>
+        <v>418.2535078318232</v>
       </c>
       <c r="C29">
-        <v>18.63115221674374</v>
+        <v>31.66989443421819</v>
       </c>
       <c r="D29">
-        <v>117.2050527072516</v>
+        <v>199.2293124555009</v>
       </c>
       <c r="E29">
-        <v>29.30607194043268</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F29">
-        <v>87.87652675816798</v>
+        <v>149.375642112774</v>
       </c>
       <c r="G29">
-        <v>110.9387889394424</v>
+        <v>188.5776946857133</v>
       </c>
       <c r="H29">
-        <v>12.25372228940698</v>
+        <v>20.82931247714163</v>
       </c>
       <c r="I29">
-        <v>622.2665957046127</v>
+        <v>1057.750866218285</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>254.0383288981512</v>
+        <v>431.8233765069725</v>
       </c>
       <c r="C30">
-        <v>20.10203265490772</v>
+        <v>34.17014925797226</v>
       </c>
       <c r="D30">
-        <v>147.7104773844814</v>
+        <v>251.0835170672066</v>
       </c>
       <c r="E30">
-        <v>29.30607194043268</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F30">
-        <v>76.72468326093855</v>
+        <v>130.4193423522697</v>
       </c>
       <c r="G30">
-        <v>89.46676527374383</v>
+        <v>152.0787860368655</v>
       </c>
       <c r="H30">
-        <v>8.75265877814784</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I30">
-        <v>626.1010181908033</v>
+        <v>1064.268753783216</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>260.0699651988056</v>
+        <v>442.076166172641</v>
       </c>
       <c r="C31">
-        <v>18.14085873735575</v>
+        <v>30.8364761596335</v>
       </c>
       <c r="D31">
-        <v>162.1604153894851</v>
+        <v>275.6460350411725</v>
       </c>
       <c r="E31">
-        <v>45.58722301845084</v>
+        <v>77.49078123284367</v>
       </c>
       <c r="F31">
-        <v>65.57283976370911</v>
+        <v>111.4630425917654</v>
       </c>
       <c r="G31">
-        <v>75.15208282994482</v>
+        <v>127.7461802709671</v>
       </c>
       <c r="H31">
-        <v>13.12898816722176</v>
+        <v>22.31712051122318</v>
       </c>
       <c r="I31">
-        <v>639.8123731049729</v>
+        <v>1087.575801980246</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>286.857526416418</v>
+        <v>487.6106143936973</v>
       </c>
       <c r="C32">
-        <v>19.61173917551972</v>
+        <v>33.33673098338756</v>
       </c>
       <c r="D32">
-        <v>141.2882827155909</v>
+        <v>240.1668424121106</v>
       </c>
       <c r="E32">
-        <v>55.35591366526172</v>
+        <v>94.09594863988161</v>
       </c>
       <c r="F32">
-        <v>64.68069228393075</v>
+        <v>109.946538610925</v>
       </c>
       <c r="G32">
-        <v>48.31205324782167</v>
+        <v>82.12254445990737</v>
       </c>
       <c r="H32">
-        <v>22.75691282318438</v>
+        <v>38.68300888612018</v>
       </c>
       <c r="I32">
-        <v>638.8631203277271</v>
+        <v>1085.96222838603</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>318.4349164610206</v>
+        <v>541.2869838198433</v>
       </c>
       <c r="C33">
-        <v>12.74763046408782</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D33">
-        <v>109.1773093711385</v>
+        <v>185.5834691366309</v>
       </c>
       <c r="E33">
-        <v>84.66198560569441</v>
+        <v>143.9114508609954</v>
       </c>
       <c r="F33">
-        <v>62.89639732437404</v>
+        <v>106.9135306492444</v>
       </c>
       <c r="G33">
-        <v>41.15471202592217</v>
+        <v>69.95624157695816</v>
       </c>
       <c r="H33">
-        <v>6.126861144703488</v>
+        <v>10.41465623857082</v>
       </c>
       <c r="I33">
-        <v>635.1998123969411</v>
+        <v>1079.735207421445</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>309.2100609423726</v>
+        <v>525.6062466841155</v>
       </c>
       <c r="C34">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D34">
-        <v>89.91072536446697</v>
+        <v>152.8334451713431</v>
       </c>
       <c r="E34">
-        <v>113.9680575461271</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F34">
-        <v>33.90160423157749</v>
+        <v>57.62715127193314</v>
       </c>
       <c r="G34">
-        <v>35.78670610949752</v>
+        <v>60.83151441474624</v>
       </c>
       <c r="H34">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I34">
-        <v>591.9874092214525</v>
+        <v>1006.281229326268</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>218.025912161891</v>
+        <v>370.6081911501882</v>
       </c>
       <c r="C35">
-        <v>7.354402190819898</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D35">
-        <v>78.67188469390857</v>
+        <v>133.7292645249253</v>
       </c>
       <c r="E35">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F35">
-        <v>17.39687585567793</v>
+        <v>29.57182762638674</v>
       </c>
       <c r="G35">
-        <v>21.47202366569852</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="H35">
-        <v>2.625797633444352</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I35">
-        <v>433.4651120227384</v>
+        <v>736.8193968347042</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>184.8519125082916</v>
+        <v>314.2178479890122</v>
       </c>
       <c r="C36">
-        <v>15.19909786102779</v>
+        <v>25.83596651212536</v>
       </c>
       <c r="D36">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E36">
-        <v>74.89329495888353</v>
+        <v>127.3062834539574</v>
       </c>
       <c r="F36">
-        <v>16.50472837589957</v>
+        <v>28.0553236455464</v>
       </c>
       <c r="G36">
-        <v>33.99737080402265</v>
+        <v>57.7899386940089</v>
       </c>
       <c r="H36">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I36">
-        <v>379.3047764042865</v>
+        <v>644.7557342332734</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>148.3072925690325</v>
+        <v>252.098004720551</v>
       </c>
       <c r="C37">
-        <v>11.27675002592384</v>
+        <v>19.16862031544785</v>
       </c>
       <c r="D37">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E37">
-        <v>63.4964892042708</v>
+        <v>107.9335881457465</v>
       </c>
       <c r="F37">
-        <v>9.367548537672729</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G37">
-        <v>21.47202366569852</v>
+        <v>36.49890864884774</v>
       </c>
       <c r="H37">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I37">
-        <v>297.4149011060162</v>
+        <v>505.5564149557034</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>112.4722769004384</v>
+        <v>191.1843720009921</v>
       </c>
       <c r="C38">
-        <v>12.74763046408782</v>
+        <v>21.66887513920192</v>
       </c>
       <c r="D38">
-        <v>35.32207067889773</v>
+        <v>60.04171060302765</v>
       </c>
       <c r="E38">
-        <v>21.1654964014236</v>
+        <v>35.97786271524884</v>
       </c>
       <c r="F38">
-        <v>6.245032358448487</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G38">
-        <v>14.31468244379901</v>
+        <v>24.33260576589849</v>
       </c>
       <c r="H38">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I38">
-        <v>203.1424551249099</v>
+        <v>345.3087621243329</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>70.42822386352374</v>
+        <v>119.7163969785392</v>
       </c>
       <c r="C39">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D39">
-        <v>27.29432734278462</v>
+        <v>46.39586728415773</v>
       </c>
       <c r="E39">
-        <v>14.65303597021634</v>
+        <v>24.90775111055688</v>
       </c>
       <c r="F39">
-        <v>9.813622277561906</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G39">
-        <v>23.26135897117339</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H39">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I39">
-        <v>154.6608234526707</v>
+        <v>262.8979622341039</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>52.86551816455941</v>
+        <v>89.86268589321077</v>
       </c>
       <c r="C40">
-        <v>11.76704350531183</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D40">
-        <v>14.44993800500362</v>
+        <v>24.56251797396586</v>
       </c>
       <c r="E40">
-        <v>4.884345323405444</v>
+        <v>8.302583703518966</v>
       </c>
       <c r="F40">
-        <v>4.014663659002598</v>
+        <v>6.824267913781557</v>
       </c>
       <c r="G40">
-        <v>16.10401774927389</v>
+        <v>27.37418148663581</v>
       </c>
       <c r="H40">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I40">
-        <v>104.9607922843716</v>
+        <v>178.416083595227</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>33.70620285659827</v>
+        <v>57.29500107285253</v>
       </c>
       <c r="C41">
-        <v>13.23792394347582</v>
+        <v>22.5022934137866</v>
       </c>
       <c r="E41">
-        <v>1.628115107801816</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F41">
-        <v>8.475401057894373</v>
+        <v>14.40678781798328</v>
       </c>
       <c r="G41">
-        <v>16.10401774927389</v>
+        <v>27.37418148663581</v>
       </c>
       <c r="H41">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I41">
-        <v>74.02692659285896</v>
+        <v>125.8335997265127</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>20.22372171395897</v>
+        <v>34.37700064371149</v>
       </c>
       <c r="C42">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D42">
-        <v>14.44993800500362</v>
+        <v>24.56251797396586</v>
       </c>
       <c r="F42">
-        <v>6.245032358448487</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G42">
-        <v>26.84002958212315</v>
+        <v>45.62363581105965</v>
       </c>
       <c r="I42">
-        <v>78.54517820607008</v>
+        <v>133.5138843354826</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>25.01355054094925</v>
+        <v>42.51892184880106</v>
       </c>
       <c r="C43">
-        <v>7.354402190819898</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D43">
-        <v>11.23884067055837</v>
+        <v>19.10418064641789</v>
       </c>
       <c r="E43">
-        <v>6.512460431207263</v>
+        <v>11.07011160469196</v>
       </c>
       <c r="F43">
-        <v>6.245032358448487</v>
+        <v>10.61552786588242</v>
       </c>
       <c r="G43">
-        <v>33.99737080402265</v>
+        <v>57.7899386940089</v>
       </c>
       <c r="I43">
-        <v>90.36165699600592</v>
+        <v>153.5999547785726</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>41.33444876624949</v>
+        <v>70.26176447355071</v>
       </c>
       <c r="C44">
-        <v>6.373815232043909</v>
+        <v>10.83443756960096</v>
       </c>
       <c r="D44">
-        <v>22.47768134111674</v>
+        <v>38.20836129283578</v>
       </c>
       <c r="E44">
-        <v>3.256230215603631</v>
+        <v>5.535055802345978</v>
       </c>
       <c r="F44">
-        <v>10.25969601745108</v>
+        <v>17.43979577966398</v>
       </c>
       <c r="G44">
-        <v>41.15471202592217</v>
+        <v>69.95624157695816</v>
       </c>
       <c r="I44">
-        <v>124.856583598387</v>
+        <v>212.2356564949555</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>93.66776372780994</v>
+        <v>159.2197924550848</v>
       </c>
       <c r="C45">
-        <v>7.354402190819898</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D45">
-        <v>52.9831060183466</v>
+        <v>90.06256590454149</v>
       </c>
       <c r="E45">
-        <v>40.70287769504538</v>
+        <v>69.18819752932471</v>
       </c>
       <c r="F45">
-        <v>25.8722769135723</v>
+        <v>43.97861544437002</v>
       </c>
       <c r="G45">
-        <v>64.41607099709556</v>
+        <v>109.4967259465432</v>
       </c>
       <c r="H45">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I45">
-        <v>285.8717634205045</v>
+        <v>485.9349794327161</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>172.7886399069827</v>
+        <v>293.7122686576756</v>
       </c>
       <c r="C46">
-        <v>7.844695670207889</v>
+        <v>13.33469239335503</v>
       </c>
       <c r="D46">
-        <v>94.72737136613485</v>
+        <v>161.0209511626651</v>
       </c>
       <c r="E46">
-        <v>146.5303597021634</v>
+        <v>249.0775111055689</v>
       </c>
       <c r="F46">
-        <v>44.60737398891775</v>
+        <v>75.82519904201726</v>
       </c>
       <c r="G46">
-        <v>105.5707830230177</v>
+        <v>179.4529675235013</v>
       </c>
       <c r="H46">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I46">
-        <v>575.5702871686835</v>
+        <v>978.3748220211094</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>243.2168637705065</v>
+        <v>413.4286656362148</v>
       </c>
       <c r="C47">
-        <v>4.902934793879931</v>
+        <v>8.33418274584689</v>
       </c>
       <c r="D47">
-        <v>77.06633602668599</v>
+        <v>131.0000958611513</v>
       </c>
       <c r="E47">
-        <v>115.5961726539289</v>
+        <v>196.4944809832822</v>
       </c>
       <c r="F47">
-        <v>51.7445538271446</v>
+        <v>87.95723088874004</v>
       </c>
       <c r="G47">
-        <v>105.5707830230177</v>
+        <v>179.4529675235013</v>
       </c>
       <c r="H47">
-        <v>7.002127022518273</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I47">
-        <v>605.0997711176821</v>
+        <v>1028.570087911389</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>297.32418940873</v>
+        <v>505.4022199900041</v>
       </c>
       <c r="C48">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D48">
-        <v>125.2327960433647</v>
+        <v>212.8751557743707</v>
       </c>
       <c r="E48">
-        <v>61.86837409646898</v>
+        <v>105.1660602445735</v>
       </c>
       <c r="F48">
-        <v>62.0042498445957</v>
+        <v>105.397026668404</v>
       </c>
       <c r="G48">
-        <v>152.0935009653645</v>
+        <v>258.5339362626715</v>
       </c>
       <c r="H48">
-        <v>8.75265877814784</v>
+        <v>14.87808034081545</v>
       </c>
       <c r="I48">
-        <v>718.0622256832078</v>
+        <v>1220.587681321702</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>223.880147394879</v>
+        <v>380.559428178631</v>
       </c>
       <c r="C49">
-        <v>6.864108711431905</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D49">
-        <v>117.2050527072516</v>
+        <v>199.2293124555009</v>
       </c>
       <c r="E49">
-        <v>131.8773237319471</v>
+        <v>224.169759995012</v>
       </c>
       <c r="F49">
-        <v>70.47965090249006</v>
+        <v>119.8038144863873</v>
       </c>
       <c r="G49">
-        <v>243.3496015445832</v>
+        <v>413.6542980202743</v>
       </c>
       <c r="H49">
-        <v>17.50531755629568</v>
+        <v>29.7561606816309</v>
       </c>
       <c r="I49">
-        <v>811.1612025488787</v>
+        <v>1378.840629661622</v>
       </c>
     </row>
   </sheetData>
